--- a/Configs/Buff.xlsx
+++ b/Configs/Buff.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6EDA15-4B88-4AA9-BBF9-AEB401C43A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D5927A-DA2C-4A37-9B35-1B9465937205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="3490" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>昏昏欲睡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,19 +129,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移动速度降低50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度加快50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图片路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝咖啡就有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿上饰品就有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件给，时间到了消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时失去2点生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐慌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神低于50点时持续生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神低于20：无法以任何方式获得活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神低于50：活力增长速度降低50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神低于20点时持续生效，恐慌和绝望不会共存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐射增生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第20天时直接获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐射病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时失去1点饱食度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时失去3点饱食度，1点生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第40天时直接获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力增长速度提高100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索消耗增加100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括时间和活力，事件给，时间到了消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑震荡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时随机失去0~3点活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件获得，时间到了消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -497,9 +589,10 @@
     <col min="2" max="2" width="14.59765625" customWidth="1"/>
     <col min="3" max="3" width="31.19921875" customWidth="1"/>
     <col min="4" max="4" width="13.265625" customWidth="1"/>
+    <col min="6" max="6" width="20.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,10 +606,13 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -530,10 +626,13 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -544,21 +643,24 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>50001</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>48</v>
@@ -567,32 +669,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>50002</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>50003</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -600,16 +705,19 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>50004</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -618,21 +726,144 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>50005</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>50006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>50007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>50008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>50009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>50010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>50011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Buff.xlsx
+++ b/Configs/Buff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D5927A-DA2C-4A37-9B35-1B9465937205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F956486C-C04F-4F01-A6BE-5960D5101DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="3490" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="2152" windowWidth="18937" windowHeight="15061" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不再失去饱食度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴上魔戒就有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -866,6 +878,26 @@
         <v>43</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>50012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Configs/Buff.xlsx
+++ b/Configs/Buff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F956486C-C04F-4F01-A6BE-5960D5101DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E226811-1906-42AF-A236-63E9581521EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2152" windowWidth="18937" windowHeight="15061" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="1140" windowWidth="24308" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -678,7 +678,7 @@
         <v>48</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -695,7 +695,7 @@
         <v>48</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -772,7 +772,7 @@
         <v>48</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>31</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>33</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -872,7 +872,7 @@
         <v>48</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>43</v>
